--- a/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/42/stop-words-topk-desired-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="132">
   <si>
     <t>anchor score</t>
   </si>
@@ -106,55 +106,55 @@
     <t>help</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>love</t>
   </si>
   <si>
     <t>positive</t>
@@ -775,7 +775,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J1" t="s">
         <v>47</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3">
         <v>0.9230769230769231</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>0.889763779527559</v>
@@ -957,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5">
         <v>0.8807339449541285</v>
@@ -1007,7 +1007,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K6">
         <v>0.8785714285714286</v>
@@ -1057,7 +1057,7 @@
         <v>3</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K7">
         <v>0.8620689655172413</v>
@@ -1107,7 +1107,7 @@
         <v>4</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K8">
         <v>0.85</v>
@@ -1157,7 +1157,7 @@
         <v>5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9">
         <v>0.8205128205128205</v>
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10">
         <v>0.8181818181818182</v>
@@ -1257,7 +1257,7 @@
         <v>4</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>0.776595744680851</v>
@@ -1307,28 +1307,28 @@
         <v>57</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1357,28 +1357,28 @@
         <v>9</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>174</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1407,7 +1407,7 @@
         <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>0.7121212121212122</v>
@@ -1507,28 +1507,28 @@
         <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K16">
-        <v>0.6932515337423313</v>
+        <v>0.6739130434782609</v>
       </c>
       <c r="L16">
-        <v>226</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>240</v>
+        <v>31</v>
       </c>
       <c r="N16">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1560,13 +1560,13 @@
         <v>46</v>
       </c>
       <c r="K17">
-        <v>0.6739130434782609</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>226</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1936,25 +1936,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1228070175438596</v>
+        <v>0.01410105757931845</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D25">
-        <v>240</v>
+        <v>465</v>
       </c>
       <c r="E25">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F25">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>1678</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>54</v>
@@ -1986,13 +1986,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01410105757931845</v>
+        <v>0.01390593047034765</v>
       </c>
       <c r="C26">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D26">
-        <v>465</v>
+        <v>696</v>
       </c>
       <c r="E26">
         <v>0.95</v>
@@ -2004,7 +2004,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1678</v>
+        <v>2411</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>55</v>
@@ -2032,30 +2032,6 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>0.01390593047034765</v>
-      </c>
-      <c r="C27">
-        <v>34</v>
-      </c>
-      <c r="D27">
-        <v>696</v>
-      </c>
-      <c r="E27">
-        <v>0.95</v>
-      </c>
-      <c r="F27">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>2411</v>
-      </c>
       <c r="J27" s="1" t="s">
         <v>56</v>
       </c>
@@ -3279,7 +3255,7 @@
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K74">
         <v>0.2154246664497234</v>
@@ -3331,7 +3307,7 @@
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K76">
         <v>0.2081170363378952</v>
